--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlo\Documents\Trabajo\BPI Challenge\bpi-challenge-performance-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0090E6C9-75D8-43F0-9A02-CE9E05F9A271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5874AC3B-B099-4E1F-9050-A445EC845A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14955" yWindow="3345" windowWidth="22800" windowHeight="9975" activeTab="2" xr2:uid="{5092433A-F3BB-4CC2-93C1-BDF3BEBCFA24}"/>
+    <workbookView xWindow="17055" yWindow="3270" windowWidth="22800" windowHeight="9975" firstSheet="1" activeTab="2" xr2:uid="{5092433A-F3BB-4CC2-93C1-BDF3BEBCFA24}"/>
   </bookViews>
   <sheets>
     <sheet name="BPI challenge similarity" sheetId="1" r:id="rId1"/>
     <sheet name="Frequent operations" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Question similarity" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
   <si>
     <t>BPI</t>
   </si>
@@ -261,6 +261,39 @@
   </si>
   <si>
     <t>Frequent operations and their definitions</t>
+  </si>
+  <si>
+    <t>Question - Question</t>
+  </si>
+  <si>
+    <t>Q1 2017 - Q1 2017</t>
+  </si>
+  <si>
+    <t>Q2 2020 - Q2 2020</t>
+  </si>
+  <si>
+    <t>Q5 2020 - Q5 2020</t>
+  </si>
+  <si>
+    <t>Q2 2019 - Q2 2019</t>
+  </si>
+  <si>
+    <t>Q5 2020 - Q6 2020</t>
+  </si>
+  <si>
+    <t>Q5 2015 - Q5 2015</t>
+  </si>
+  <si>
+    <t>Q6 2020 - Q6 2020</t>
+  </si>
+  <si>
+    <t>Q1 2020 - Q1 2020</t>
+  </si>
+  <si>
+    <t>Q2 2019 - Q1 2020</t>
+  </si>
+  <si>
+    <t>Q4 2020 - Q6 2020</t>
   </si>
 </sst>
 </file>
@@ -309,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -334,6 +367,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -655,23 +694,23 @@
   <dimension ref="A2:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -840,7 +879,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,10 +889,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1001,12 +1040,175 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1EB05C4-26F0-4C9B-94D5-9C16319513BC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.21</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C4" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="C6" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="C8" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlo\Documents\Trabajo\BPI Challenge\bpi-challenge-performance-analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Desktop\bpi-challenge-performance-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0090E6C9-75D8-43F0-9A02-CE9E05F9A271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C44D841-CEF6-4A97-88F0-B2B2687EA16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14955" yWindow="3345" windowWidth="22800" windowHeight="9975" activeTab="2" xr2:uid="{5092433A-F3BB-4CC2-93C1-BDF3BEBCFA24}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5092433A-F3BB-4CC2-93C1-BDF3BEBCFA24}"/>
   </bookViews>
   <sheets>
     <sheet name="BPI challenge similarity" sheetId="1" r:id="rId1"/>
     <sheet name="Frequent operations" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Question similarity" sheetId="3" r:id="rId3"/>
+    <sheet name="Distribution of reports" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="133">
   <si>
     <t>BPI</t>
   </si>
@@ -261,13 +262,187 @@
   </si>
   <si>
     <t>Frequent operations and their definitions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1 2017 - Q1 2017 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2 2020 - Q2 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q5 2020 - Q5 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2 2019 - Q2 2019 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q5 2020 - Q6 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q5 2015 - Q5 2015 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q6 2020 - Q6 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1 2020 - Q1 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2 2019 - Q1 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q4 2020 - Q6 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1 2017 - Q5 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q4 2020 - Q5 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q5 2015 - Q1 2017 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q5 2015 - Q2 2019 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1 2017 - Q2 2019 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1 2017 - Q6 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q5 2015 - Q1 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q5 2015 - Q2 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q5 2015 - Q5 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1 2017 - Q1 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1 2020 - Q2 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q4 2020 - Q4 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q5 2015 - Q6 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1 2020 - Q4 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2 2019 - Q4 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2 2020 - Q5 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1 2017 - Q4 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2 2019 - Q2 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2 2019 - Q5 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1 2020 - Q6 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2 2019 - Q6 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2 2020 - Q6 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q5 2015 - Q4 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1 2020 - Q5 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1 2017 - Q2 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2 2020 - Q4 2020 </t>
+  </si>
+  <si>
+    <t>Similarity per questions using the Sørensen–Dice coefficient  (AVG: average, STD: standard deviation, VAR:Variance)</t>
+  </si>
+  <si>
+    <t>Question - Question</t>
+  </si>
+  <si>
+    <t>Distribution of reports and answers of participants per year</t>
+  </si>
+  <si>
+    <t>Participant</t>
+  </si>
+  <si>
+    <t>Reports , Answers</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Professional</t>
+  </si>
+  <si>
+    <t>Academic</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>2 , 2</t>
+  </si>
+  <si>
+    <t>3 , 3</t>
+  </si>
+  <si>
+    <t>4 , 4</t>
+  </si>
+  <si>
+    <t>13 , 13</t>
+  </si>
+  <si>
+    <t>6 , 6</t>
+  </si>
+  <si>
+    <t>5 , 5</t>
+  </si>
+  <si>
+    <t>2 , 10</t>
+  </si>
+  <si>
+    <t>12 , 50</t>
+  </si>
+  <si>
+    <t>6 , 24</t>
+  </si>
+  <si>
+    <t>22 , 30</t>
+  </si>
+  <si>
+    <t>26 , 64</t>
+  </si>
+  <si>
+    <t>14 , 32</t>
+  </si>
+  <si>
+    <t>62 , 126</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +452,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -309,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -336,7 +519,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -654,26 +847,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2DFAC3-E637-41C3-B153-3A9B6C98BFA3}">
   <dimension ref="A2:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -708,7 +901,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -743,7 +936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -778,7 +971,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -813,7 +1006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -843,19 +1036,19 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="91.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.1796875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="91.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="9"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="10"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>40</v>
       </c>
@@ -863,7 +1056,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>42</v>
       </c>
@@ -871,7 +1064,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>44</v>
       </c>
@@ -879,7 +1072,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>46</v>
       </c>
@@ -887,7 +1080,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>48</v>
       </c>
@@ -895,7 +1088,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>50</v>
       </c>
@@ -903,7 +1096,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>52</v>
       </c>
@@ -911,7 +1104,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>54</v>
       </c>
@@ -919,7 +1112,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>56</v>
       </c>
@@ -927,7 +1120,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>58</v>
       </c>
@@ -935,7 +1128,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>60</v>
       </c>
@@ -943,7 +1136,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>62</v>
       </c>
@@ -951,7 +1144,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>64</v>
       </c>
@@ -959,7 +1152,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>66</v>
       </c>
@@ -967,7 +1160,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>68</v>
       </c>
@@ -975,7 +1168,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>70</v>
       </c>
@@ -983,7 +1176,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>72</v>
       </c>
@@ -1001,12 +1194,688 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1EB05C4-26F0-4C9B-94D5-9C16319513BC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3">
+        <v>0.22</v>
+      </c>
+      <c r="C3">
+        <v>0.02</v>
+      </c>
+      <c r="D3">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4">
+        <v>0.21</v>
+      </c>
+      <c r="C4">
+        <v>0.09</v>
+      </c>
+      <c r="D4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5">
+        <v>0.2</v>
+      </c>
+      <c r="C5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6">
+        <v>0.18</v>
+      </c>
+      <c r="C6">
+        <v>0.01</v>
+      </c>
+      <c r="D6">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7">
+        <v>0.18</v>
+      </c>
+      <c r="C7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8">
+        <v>0.17</v>
+      </c>
+      <c r="C8">
+        <v>0.02</v>
+      </c>
+      <c r="D8">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9">
+        <v>0.17</v>
+      </c>
+      <c r="C9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D9">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10">
+        <v>0.16</v>
+      </c>
+      <c r="C10">
+        <v>0.03</v>
+      </c>
+      <c r="D10">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11">
+        <v>0.13</v>
+      </c>
+      <c r="C11">
+        <v>0.01</v>
+      </c>
+      <c r="D11">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12">
+        <v>0.13</v>
+      </c>
+      <c r="C12">
+        <v>0.04</v>
+      </c>
+      <c r="D12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13">
+        <v>0.12</v>
+      </c>
+      <c r="C13">
+        <v>0.02</v>
+      </c>
+      <c r="D13">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14">
+        <v>0.12</v>
+      </c>
+      <c r="C14">
+        <v>0.04</v>
+      </c>
+      <c r="D14">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15">
+        <v>0.12</v>
+      </c>
+      <c r="C15">
+        <v>0.02</v>
+      </c>
+      <c r="D15">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16">
+        <v>0.12</v>
+      </c>
+      <c r="C16">
+        <v>0.01</v>
+      </c>
+      <c r="D16">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17">
+        <v>0.11</v>
+      </c>
+      <c r="C17">
+        <v>0.01</v>
+      </c>
+      <c r="D17">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18">
+        <v>0.11</v>
+      </c>
+      <c r="C18">
+        <v>0.02</v>
+      </c>
+      <c r="D18">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19">
+        <v>0.11</v>
+      </c>
+      <c r="C19">
+        <v>0.02</v>
+      </c>
+      <c r="D19">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20">
+        <v>0.11</v>
+      </c>
+      <c r="C20">
+        <v>0.02</v>
+      </c>
+      <c r="D20">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21">
+        <v>0.1</v>
+      </c>
+      <c r="C21">
+        <v>0.02</v>
+      </c>
+      <c r="D21">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22">
+        <v>0.09</v>
+      </c>
+      <c r="C22">
+        <v>0.02</v>
+      </c>
+      <c r="D22">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23">
+        <v>0.09</v>
+      </c>
+      <c r="C23">
+        <v>0.02</v>
+      </c>
+      <c r="D23">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24">
+        <v>0.08</v>
+      </c>
+      <c r="C24">
+        <v>0.03</v>
+      </c>
+      <c r="D24">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25">
+        <v>0.08</v>
+      </c>
+      <c r="C25">
+        <v>0.02</v>
+      </c>
+      <c r="D25">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C26">
+        <v>0.01</v>
+      </c>
+      <c r="D26">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C27">
+        <v>0.01</v>
+      </c>
+      <c r="D27">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C28">
+        <v>0.02</v>
+      </c>
+      <c r="D28">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29">
+        <v>0.06</v>
+      </c>
+      <c r="C29">
+        <v>0.01</v>
+      </c>
+      <c r="D29">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30">
+        <v>0.06</v>
+      </c>
+      <c r="C30">
+        <v>0.01</v>
+      </c>
+      <c r="D30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31">
+        <v>0.06</v>
+      </c>
+      <c r="C31">
+        <v>0.01</v>
+      </c>
+      <c r="D31">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32">
+        <v>0.05</v>
+      </c>
+      <c r="C32">
+        <v>0.01</v>
+      </c>
+      <c r="D32">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33">
+        <v>0.05</v>
+      </c>
+      <c r="C33">
+        <v>0.01</v>
+      </c>
+      <c r="D33">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34">
+        <v>0.05</v>
+      </c>
+      <c r="C34">
+        <v>0.02</v>
+      </c>
+      <c r="D34">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35">
+        <v>0.05</v>
+      </c>
+      <c r="C35">
+        <v>0.01</v>
+      </c>
+      <c r="D35">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36">
+        <v>0.04</v>
+      </c>
+      <c r="C36">
+        <v>0.01</v>
+      </c>
+      <c r="D36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37">
+        <v>0.03</v>
+      </c>
+      <c r="C37">
+        <v>0.01</v>
+      </c>
+      <c r="D37">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38">
+        <v>0.03</v>
+      </c>
+      <c r="C38">
+        <v>0.01</v>
+      </c>
+      <c r="D38">
+        <v>0.09</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{390631FF-7F87-4949-BB95-C70D972265FF}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.36328125" style="7" customWidth="1"/>
+    <col min="2" max="16384" width="10.90625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="13"/>
+      <c r="B2" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="13">
+        <v>2015</v>
+      </c>
+      <c r="C3" s="13">
+        <v>2017</v>
+      </c>
+      <c r="D3" s="13">
+        <v>2019</v>
+      </c>
+      <c r="E3" s="13">
+        <v>2020</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="E5:E6" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlo\Documents\Trabajo\BPI Challenge\bpi-challenge-performance-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5874AC3B-B099-4E1F-9050-A445EC845A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BDC2D6-4F1C-4819-A6C1-2F519C9D3A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17055" yWindow="3270" windowWidth="22800" windowHeight="9975" firstSheet="1" activeTab="2" xr2:uid="{5092433A-F3BB-4CC2-93C1-BDF3BEBCFA24}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{5092433A-F3BB-4CC2-93C1-BDF3BEBCFA24}"/>
   </bookViews>
   <sheets>
     <sheet name="BPI challenge similarity" sheetId="1" r:id="rId1"/>
     <sheet name="Frequent operations" sheetId="2" r:id="rId2"/>
     <sheet name="Question similarity" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="133">
   <si>
     <t>BPI</t>
   </si>
@@ -266,41 +267,182 @@
     <t>Question - Question</t>
   </si>
   <si>
-    <t>Q1 2017 - Q1 2017</t>
-  </si>
-  <si>
-    <t>Q2 2020 - Q2 2020</t>
-  </si>
-  <si>
-    <t>Q5 2020 - Q5 2020</t>
-  </si>
-  <si>
-    <t>Q2 2019 - Q2 2019</t>
-  </si>
-  <si>
-    <t>Q5 2020 - Q6 2020</t>
-  </si>
-  <si>
-    <t>Q5 2015 - Q5 2015</t>
-  </si>
-  <si>
-    <t>Q6 2020 - Q6 2020</t>
-  </si>
-  <si>
-    <t>Q1 2020 - Q1 2020</t>
-  </si>
-  <si>
-    <t>Q2 2019 - Q1 2020</t>
-  </si>
-  <si>
-    <t>Q4 2020 - Q6 2020</t>
+    <t>Similarity per questions using the Sørensen–Dice coefficient  (AVG: average, STD: standard deviation, VAR:Variance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1 2017 - Q1 2017 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2 2020 - Q2 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q5 2020 - Q5 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2 2019 - Q2 2019 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q5 2020 - Q6 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q5 2015 - Q5 2015 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q6 2020 - Q6 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1 2020 - Q1 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2 2019 - Q1 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q4 2020 - Q6 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1 2017 - Q5 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q4 2020 - Q5 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q5 2015 - Q1 2017 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q5 2015 - Q2 2019 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1 2017 - Q2 2019 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1 2017 - Q6 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q5 2015 - Q1 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q5 2015 - Q2 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q5 2015 - Q5 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1 2017 - Q1 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1 2020 - Q2 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q4 2020 - Q4 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q5 2015 - Q6 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1 2020 - Q4 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2 2019 - Q4 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2 2020 - Q5 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1 2017 - Q4 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2 2019 - Q2 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2 2019 - Q5 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1 2020 - Q6 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2 2019 - Q6 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2 2020 - Q6 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q5 2015 - Q4 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1 2020 - Q5 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1 2017 - Q2 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2 2020 - Q4 2020 </t>
+  </si>
+  <si>
+    <t>Distribution of reports and answers of participants per year</t>
+  </si>
+  <si>
+    <t>Reports , Answers</t>
+  </si>
+  <si>
+    <t>Participant</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>2 , 2</t>
+  </si>
+  <si>
+    <t>13 , 13</t>
+  </si>
+  <si>
+    <t>5 , 5</t>
+  </si>
+  <si>
+    <t>2 , 10</t>
+  </si>
+  <si>
+    <t>22 , 30</t>
+  </si>
+  <si>
+    <t>Professional</t>
+  </si>
+  <si>
+    <t>3 , 3</t>
+  </si>
+  <si>
+    <t>6 , 6</t>
+  </si>
+  <si>
+    <t>12 , 50</t>
+  </si>
+  <si>
+    <t>26 , 64</t>
+  </si>
+  <si>
+    <t>Academic</t>
+  </si>
+  <si>
+    <t>4 , 4</t>
+  </si>
+  <si>
+    <t>6 , 24</t>
+  </si>
+  <si>
+    <t>14 , 32</t>
+  </si>
+  <si>
+    <t>62 , 126</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,6 +452,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -342,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -375,7 +525,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -700,17 +860,17 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -889,10 +1049,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1040,10 +1200,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1EB05C4-26F0-4C9B-94D5-9C16319513BC}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,161 +1214,684 @@
     <col min="4" max="4" width="15.5703125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D2" s="13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="7">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3">
         <v>0.22</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C3">
         <v>0.02</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D3">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="7">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4">
         <v>0.21</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C4">
         <v>0.09</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="7">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5">
         <v>0.2</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D5">
         <v>0.26</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="7">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6">
         <v>0.18</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C6">
         <v>0.01</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D6">
         <v>0.11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="7">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7">
         <v>0.18</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D7">
         <v>0.26</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="7">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8">
         <v>0.17</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C8">
         <v>0.02</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D8">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="7">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9">
         <v>0.17</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D9">
         <v>0.26</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="7">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10">
         <v>0.16</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C10">
         <v>0.03</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D10">
         <v>0.18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="7">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11">
         <v>0.13</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C11">
         <v>0.01</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D11">
         <v>0.11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="7">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12">
         <v>0.13</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C12">
         <v>0.04</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D12">
         <v>0.2</v>
       </c>
     </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13">
+        <v>0.12</v>
+      </c>
+      <c r="C13">
+        <v>0.02</v>
+      </c>
+      <c r="D13">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14">
+        <v>0.12</v>
+      </c>
+      <c r="C14">
+        <v>0.04</v>
+      </c>
+      <c r="D14">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15">
+        <v>0.12</v>
+      </c>
+      <c r="C15">
+        <v>0.02</v>
+      </c>
+      <c r="D15">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16">
+        <v>0.12</v>
+      </c>
+      <c r="C16">
+        <v>0.01</v>
+      </c>
+      <c r="D16">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17">
+        <v>0.11</v>
+      </c>
+      <c r="C17">
+        <v>0.01</v>
+      </c>
+      <c r="D17">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18">
+        <v>0.11</v>
+      </c>
+      <c r="C18">
+        <v>0.02</v>
+      </c>
+      <c r="D18">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19">
+        <v>0.11</v>
+      </c>
+      <c r="C19">
+        <v>0.02</v>
+      </c>
+      <c r="D19">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20">
+        <v>0.11</v>
+      </c>
+      <c r="C20">
+        <v>0.02</v>
+      </c>
+      <c r="D20">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21">
+        <v>0.1</v>
+      </c>
+      <c r="C21">
+        <v>0.02</v>
+      </c>
+      <c r="D21">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22">
+        <v>0.09</v>
+      </c>
+      <c r="C22">
+        <v>0.02</v>
+      </c>
+      <c r="D22">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23">
+        <v>0.09</v>
+      </c>
+      <c r="C23">
+        <v>0.02</v>
+      </c>
+      <c r="D23">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24">
+        <v>0.08</v>
+      </c>
+      <c r="C24">
+        <v>0.03</v>
+      </c>
+      <c r="D24">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25">
+        <v>0.08</v>
+      </c>
+      <c r="C25">
+        <v>0.02</v>
+      </c>
+      <c r="D25">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C26">
+        <v>0.01</v>
+      </c>
+      <c r="D26">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C27">
+        <v>0.01</v>
+      </c>
+      <c r="D27">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C28">
+        <v>0.02</v>
+      </c>
+      <c r="D28">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29">
+        <v>0.06</v>
+      </c>
+      <c r="C29">
+        <v>0.01</v>
+      </c>
+      <c r="D29">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30">
+        <v>0.06</v>
+      </c>
+      <c r="C30">
+        <v>0.01</v>
+      </c>
+      <c r="D30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31">
+        <v>0.06</v>
+      </c>
+      <c r="C31">
+        <v>0.01</v>
+      </c>
+      <c r="D31">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32">
+        <v>0.05</v>
+      </c>
+      <c r="C32">
+        <v>0.01</v>
+      </c>
+      <c r="D32">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33">
+        <v>0.05</v>
+      </c>
+      <c r="C33">
+        <v>0.01</v>
+      </c>
+      <c r="D33">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34">
+        <v>0.05</v>
+      </c>
+      <c r="C34">
+        <v>0.02</v>
+      </c>
+      <c r="D34">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35">
+        <v>0.05</v>
+      </c>
+      <c r="C35">
+        <v>0.01</v>
+      </c>
+      <c r="D35">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36">
+        <v>0.04</v>
+      </c>
+      <c r="C36">
+        <v>0.01</v>
+      </c>
+      <c r="D36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37">
+        <v>0.03</v>
+      </c>
+      <c r="C37">
+        <v>0.01</v>
+      </c>
+      <c r="D37">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38">
+        <v>0.03</v>
+      </c>
+      <c r="C38">
+        <v>0.01</v>
+      </c>
+      <c r="D38">
+        <v>0.09</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59E4EC8-3E34-41D3-9315-A7C3365949FB}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="14">
+        <v>2015</v>
+      </c>
+      <c r="C3" s="14">
+        <v>2017</v>
+      </c>
+      <c r="D3" s="14">
+        <v>2019</v>
+      </c>
+      <c r="E3" s="14">
+        <v>2020</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlo\Documents\Trabajo\BPI Challenge\bpi-challenge-performance-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BDC2D6-4F1C-4819-A6C1-2F519C9D3A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5141BA-8041-4D2E-B0B1-4461EDAEFDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{5092433A-F3BB-4CC2-93C1-BDF3BEBCFA24}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="BPI challenge similarity" sheetId="1" r:id="rId1"/>
     <sheet name="Frequent operations" sheetId="2" r:id="rId2"/>
     <sheet name="Question similarity" sheetId="3" r:id="rId3"/>
-    <sheet name="Hoja1" sheetId="4" r:id="rId4"/>
+    <sheet name="Reports and answers" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -524,15 +524,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -860,17 +860,17 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1049,10 +1049,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1215,36 +1215,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1769,18 +1769,18 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="15" t="s">
         <v>114</v>
       </c>
@@ -1791,22 +1791,22 @@
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="12">
         <v>2015</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="12">
         <v>2017</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="12">
         <v>2019</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="12">
         <v>2020</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="12" t="s">
         <v>116</v>
       </c>
       <c r="G3" s="10"/>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Desktop\bpi-challenge-performance-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C44D841-CEF6-4A97-88F0-B2B2687EA16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644DA87E-906F-4E37-B03E-A3C3DC882267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5092433A-F3BB-4CC2-93C1-BDF3BEBCFA24}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{5092433A-F3BB-4CC2-93C1-BDF3BEBCFA24}"/>
   </bookViews>
   <sheets>
     <sheet name="BPI challenge similarity" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="125">
   <si>
     <t>BPI</t>
   </si>
@@ -264,114 +264,6 @@
     <t>Frequent operations and their definitions</t>
   </si>
   <si>
-    <t xml:space="preserve">Q1 2017 - Q1 2017 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2 2020 - Q2 2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q5 2020 - Q5 2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2 2019 - Q2 2019 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q5 2020 - Q6 2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q5 2015 - Q5 2015 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q6 2020 - Q6 2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1 2020 - Q1 2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2 2019 - Q1 2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4 2020 - Q6 2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1 2017 - Q5 2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4 2020 - Q5 2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q5 2015 - Q1 2017 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q5 2015 - Q2 2019 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1 2017 - Q2 2019 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1 2017 - Q6 2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q5 2015 - Q1 2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q5 2015 - Q2 2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q5 2015 - Q5 2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1 2017 - Q1 2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1 2020 - Q2 2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4 2020 - Q4 2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q5 2015 - Q6 2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1 2020 - Q4 2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2 2019 - Q4 2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2 2020 - Q5 2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1 2017 - Q4 2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2 2019 - Q2 2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2 2019 - Q5 2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1 2020 - Q6 2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2 2019 - Q6 2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2 2020 - Q6 2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q5 2015 - Q4 2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1 2020 - Q5 2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1 2017 - Q2 2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2 2020 - Q4 2020 </t>
-  </si>
-  <si>
     <t>Similarity per questions using the Sørensen–Dice coefficient  (AVG: average, STD: standard deviation, VAR:Variance)</t>
   </si>
   <si>
@@ -417,25 +309,109 @@
     <t>5 , 5</t>
   </si>
   <si>
-    <t>2 , 10</t>
-  </si>
-  <si>
-    <t>12 , 50</t>
-  </si>
-  <si>
-    <t>6 , 24</t>
-  </si>
-  <si>
-    <t>22 , 30</t>
-  </si>
-  <si>
-    <t>26 , 64</t>
-  </si>
-  <si>
-    <t>14 , 32</t>
-  </si>
-  <si>
-    <t>62 , 126</t>
+    <t>C17-C17</t>
+  </si>
+  <si>
+    <t>C15-C15</t>
+  </si>
+  <si>
+    <t>C15-C17</t>
+  </si>
+  <si>
+    <t>C19-C19</t>
+  </si>
+  <si>
+    <t>C15-C19</t>
+  </si>
+  <si>
+    <t>C17-C19</t>
+  </si>
+  <si>
+    <t>C20A-C20A</t>
+  </si>
+  <si>
+    <t>C15-C20A</t>
+  </si>
+  <si>
+    <t>C19-C20A</t>
+  </si>
+  <si>
+    <t>C17-C20A</t>
+  </si>
+  <si>
+    <t>C20B-C20B</t>
+  </si>
+  <si>
+    <t>C19-C20B</t>
+  </si>
+  <si>
+    <t>C20A-C20B</t>
+  </si>
+  <si>
+    <t>C17-C20B</t>
+  </si>
+  <si>
+    <t>C15-C20B</t>
+  </si>
+  <si>
+    <t>C20C-C20C</t>
+  </si>
+  <si>
+    <t>C17-C20C</t>
+  </si>
+  <si>
+    <t>C20B-C20C</t>
+  </si>
+  <si>
+    <t>C15-C20C</t>
+  </si>
+  <si>
+    <t>C19-C20C</t>
+  </si>
+  <si>
+    <t>C20A-C20C</t>
+  </si>
+  <si>
+    <t>C20C-C20D</t>
+  </si>
+  <si>
+    <t>C20D-C20D</t>
+  </si>
+  <si>
+    <t>C20B-C20D</t>
+  </si>
+  <si>
+    <t>C17-C20D</t>
+  </si>
+  <si>
+    <t>C15-C20D</t>
+  </si>
+  <si>
+    <t>C19-C20D</t>
+  </si>
+  <si>
+    <t>C20A-C20D</t>
+  </si>
+  <si>
+    <t>2 , 8</t>
+  </si>
+  <si>
+    <t>12 , 41</t>
+  </si>
+  <si>
+    <t>6 , 19</t>
+  </si>
+  <si>
+    <t>22 , 28</t>
+  </si>
+  <si>
+    <t>26 , 55</t>
+  </si>
+  <si>
+    <t>14 , 27</t>
+  </si>
+  <si>
+    <t>62 , 110</t>
   </si>
 </sst>
 </file>
@@ -518,15 +494,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -535,7 +511,26 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -546,6 +541,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EA1C350-4F65-4A7B-A6FF-46EFAE47FCC5}" name="Tabla1" displayName="Tabla1" ref="A2:D30" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A2:D30" xr:uid="{8EA1C350-4F65-4A7B-A6FF-46EFAE47FCC5}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D30">
+    <sortCondition descending="1" ref="B2:B30"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{39B59C34-4E56-4FD0-9522-F8E5AA0E3E70}" name="Question - Question"/>
+    <tableColumn id="2" xr3:uid="{55AD8B86-8E60-4C64-8980-D497F97FD7F6}" name="AVG"/>
+    <tableColumn id="3" xr3:uid="{9A07E987-ED15-44F2-B220-95E85066A7D1}" name="VAR"/>
+    <tableColumn id="4" xr3:uid="{9A5EFA74-27E5-4A6C-BACF-389EB6E5B3BD}" name="STD"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -847,24 +858,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2DFAC3-E637-41C3-B153-3A9B6C98BFA3}">
   <dimension ref="A2:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
@@ -1043,10 +1054,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -1194,546 +1205,437 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1EB05C4-26F0-4C9B-94D5-9C16319513BC}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.6328125" customWidth="1"/>
+    <col min="1" max="1" width="19.6328125" customWidth="1"/>
+    <col min="7" max="7" width="16.36328125" customWidth="1"/>
+    <col min="8" max="8" width="13.08984375" customWidth="1"/>
+    <col min="9" max="9" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-    </row>
-    <row r="2" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="A1" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="B3">
-        <v>0.22</v>
+        <v>0.21609400000000001</v>
       </c>
       <c r="C3">
-        <v>0.02</v>
+        <v>2.0088999999999999E-2</v>
       </c>
       <c r="D3">
-        <v>0.14000000000000001</v>
+        <v>0.141736</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="B4">
-        <v>0.21</v>
+        <v>0.19525999999999999</v>
       </c>
       <c r="C4">
-        <v>0.09</v>
+        <v>6.7712999999999995E-2</v>
       </c>
       <c r="D4">
-        <v>0.3</v>
+        <v>0.260218</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="B5">
-        <v>0.2</v>
+        <v>0.19118199999999999</v>
       </c>
       <c r="C5">
-        <v>7.0000000000000007E-2</v>
+        <v>2.7689999999999999E-2</v>
       </c>
       <c r="D5">
-        <v>0.26</v>
+        <v>0.166403</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="B6">
-        <v>0.18</v>
+        <v>0.18931600000000001</v>
       </c>
       <c r="C6">
-        <v>0.01</v>
+        <v>7.4722999999999998E-2</v>
       </c>
       <c r="D6">
-        <v>0.11</v>
+        <v>0.27335500000000001</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="B7">
-        <v>0.18</v>
+        <v>0.181426</v>
       </c>
       <c r="C7">
-        <v>7.0000000000000007E-2</v>
+        <v>1.1422E-2</v>
       </c>
       <c r="D7">
-        <v>0.26</v>
+        <v>0.106874</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="B8">
-        <v>0.17</v>
+        <v>0.17738899999999999</v>
       </c>
       <c r="C8">
-        <v>0.02</v>
+        <v>5.0783000000000002E-2</v>
       </c>
       <c r="D8">
-        <v>0.14000000000000001</v>
+        <v>0.225351</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B9">
-        <v>0.17</v>
+        <v>0.17158499999999999</v>
       </c>
       <c r="C9">
-        <v>7.0000000000000007E-2</v>
+        <v>1.9368E-2</v>
       </c>
       <c r="D9">
-        <v>0.26</v>
+        <v>0.13916999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="B10">
-        <v>0.16</v>
+        <v>0.14161099999999999</v>
       </c>
       <c r="C10">
-        <v>0.03</v>
+        <v>1.8929000000000001E-2</v>
       </c>
       <c r="D10">
-        <v>0.18</v>
+        <v>0.13758400000000001</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="B11">
-        <v>0.13</v>
+        <v>0.136327</v>
       </c>
       <c r="C11">
-        <v>0.01</v>
+        <v>1.4445E-2</v>
       </c>
       <c r="D11">
-        <v>0.11</v>
+        <v>0.120187</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="B12">
-        <v>0.13</v>
+        <v>0.12776000000000001</v>
       </c>
       <c r="C12">
-        <v>0.04</v>
+        <v>1.7891000000000001E-2</v>
       </c>
       <c r="D12">
-        <v>0.2</v>
+        <v>0.13375699999999999</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B13">
-        <v>0.12</v>
+        <v>0.121624</v>
       </c>
       <c r="C13">
-        <v>0.02</v>
+        <v>1.5795E-2</v>
       </c>
       <c r="D13">
-        <v>0.13</v>
+        <v>0.12567999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B14">
-        <v>0.12</v>
+        <v>0.119175</v>
       </c>
       <c r="C14">
-        <v>0.04</v>
+        <v>1.2612999999999999E-2</v>
       </c>
       <c r="D14">
-        <v>0.21</v>
+        <v>0.11230900000000001</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="B15">
-        <v>0.12</v>
+        <v>0.117039</v>
       </c>
       <c r="C15">
-        <v>0.02</v>
+        <v>3.6068000000000003E-2</v>
       </c>
       <c r="D15">
-        <v>0.13</v>
+        <v>0.189915</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="B16">
-        <v>0.12</v>
+        <v>0.115482</v>
       </c>
       <c r="C16">
-        <v>0.01</v>
+        <v>3.6728999999999998E-2</v>
       </c>
       <c r="D16">
-        <v>0.11</v>
+        <v>0.19164800000000001</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="B17">
-        <v>0.11</v>
+        <v>0.1148</v>
       </c>
       <c r="C17">
-        <v>0.01</v>
+        <v>1.7267000000000001E-2</v>
       </c>
       <c r="D17">
-        <v>0.11</v>
+        <v>0.13140499999999999</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B18">
-        <v>0.11</v>
+        <v>0.112189</v>
       </c>
       <c r="C18">
-        <v>0.02</v>
+        <v>1.3233999999999999E-2</v>
       </c>
       <c r="D18">
-        <v>0.12</v>
+        <v>0.115041</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B19">
-        <v>0.11</v>
+        <v>0.10011399999999999</v>
       </c>
       <c r="C19">
-        <v>0.02</v>
+        <v>1.7815999999999999E-2</v>
       </c>
       <c r="D19">
-        <v>0.12</v>
+        <v>0.13347800000000001</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B20">
-        <v>0.11</v>
+        <v>8.7856000000000004E-2</v>
       </c>
       <c r="C20">
-        <v>0.02</v>
+        <v>1.2881E-2</v>
       </c>
       <c r="D20">
-        <v>0.12</v>
+        <v>0.113493</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="B21">
-        <v>0.1</v>
+        <v>8.5254999999999997E-2</v>
       </c>
       <c r="C21">
-        <v>0.02</v>
+        <v>1.8929999999999999E-2</v>
       </c>
       <c r="D21">
-        <v>0.13</v>
+        <v>0.13758699999999999</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B22">
-        <v>0.09</v>
+        <v>8.1389000000000003E-2</v>
       </c>
       <c r="C22">
-        <v>0.02</v>
+        <v>2.8263E-2</v>
       </c>
       <c r="D22">
-        <v>0.12</v>
+        <v>0.16811599999999999</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="B23">
-        <v>0.09</v>
+        <v>7.3986999999999997E-2</v>
       </c>
       <c r="C23">
-        <v>0.02</v>
+        <v>8.9409999999999993E-3</v>
       </c>
       <c r="D23">
-        <v>0.15</v>
+        <v>9.4557000000000002E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B24">
-        <v>0.08</v>
+        <v>6.9274000000000002E-2</v>
       </c>
       <c r="C24">
-        <v>0.03</v>
+        <v>8.8870000000000008E-3</v>
       </c>
       <c r="D24">
-        <v>0.17</v>
+        <v>9.4270999999999994E-2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B25">
-        <v>0.08</v>
+        <v>6.5173999999999996E-2</v>
       </c>
       <c r="C25">
-        <v>0.02</v>
+        <v>1.2746E-2</v>
       </c>
       <c r="D25">
-        <v>0.13</v>
+        <v>0.112897</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B26">
-        <v>7.0000000000000007E-2</v>
+        <v>6.5072000000000005E-2</v>
       </c>
       <c r="C26">
-        <v>0.01</v>
+        <v>1.0446E-2</v>
       </c>
       <c r="D26">
-        <v>0.12</v>
+        <v>0.102205</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="B27">
-        <v>7.0000000000000007E-2</v>
+        <v>6.3243999999999995E-2</v>
       </c>
       <c r="C27">
-        <v>0.01</v>
+        <v>1.2062E-2</v>
       </c>
       <c r="D27">
-        <v>0.09</v>
+        <v>0.10982699999999999</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B28">
-        <v>7.0000000000000007E-2</v>
+        <v>4.9430000000000002E-2</v>
       </c>
       <c r="C28">
-        <v>0.02</v>
+        <v>9.2379999999999997E-3</v>
       </c>
       <c r="D28">
-        <v>0.15</v>
+        <v>9.6114000000000005E-2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="B29">
-        <v>0.06</v>
+        <v>4.8256E-2</v>
       </c>
       <c r="C29">
-        <v>0.01</v>
+        <v>5.7730000000000004E-3</v>
       </c>
       <c r="D29">
-        <v>0.1</v>
+        <v>7.5980000000000006E-2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="B30">
-        <v>0.06</v>
+        <v>4.6785E-2</v>
       </c>
       <c r="C30">
-        <v>0.01</v>
+        <v>1.0385999999999999E-2</v>
       </c>
       <c r="D30">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>103</v>
-      </c>
-      <c r="B31">
-        <v>0.06</v>
-      </c>
-      <c r="C31">
-        <v>0.01</v>
-      </c>
-      <c r="D31">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>104</v>
-      </c>
-      <c r="B32">
-        <v>0.05</v>
-      </c>
-      <c r="C32">
-        <v>0.01</v>
-      </c>
-      <c r="D32">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>105</v>
-      </c>
-      <c r="B33">
-        <v>0.05</v>
-      </c>
-      <c r="C33">
-        <v>0.01</v>
-      </c>
-      <c r="D33">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>106</v>
-      </c>
-      <c r="B34">
-        <v>0.05</v>
-      </c>
-      <c r="C34">
-        <v>0.02</v>
-      </c>
-      <c r="D34">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>107</v>
-      </c>
-      <c r="B35">
-        <v>0.05</v>
-      </c>
-      <c r="C35">
-        <v>0.01</v>
-      </c>
-      <c r="D35">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>108</v>
-      </c>
-      <c r="B36">
-        <v>0.04</v>
-      </c>
-      <c r="C36">
-        <v>0.01</v>
-      </c>
-      <c r="D36">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>109</v>
-      </c>
-      <c r="B37">
-        <v>0.03</v>
-      </c>
-      <c r="C37">
-        <v>0.01</v>
-      </c>
-      <c r="D37">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>110</v>
-      </c>
-      <c r="B38">
-        <v>0.03</v>
-      </c>
-      <c r="C38">
-        <v>0.01</v>
-      </c>
-      <c r="D38">
-        <v>0.09</v>
+        <v>0.101913</v>
       </c>
     </row>
   </sheetData>
@@ -1742,6 +1644,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1749,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{390631FF-7F87-4949-BB95-C70D972265FF}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1760,112 +1665,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="A1" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="13"/>
-      <c r="B2" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="13">
+      <c r="A3" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="10">
         <v>2015</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="10">
         <v>2017</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="10">
         <v>2019</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="10">
         <v>2020</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>119</v>
+      <c r="F3" s="10" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>128</v>
-      </c>
       <c r="F6" s="7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1874,8 +1779,5 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="E5:E6" twoDigitTextYear="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Desktop\bpi-challenge-performance-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644DA87E-906F-4E37-B03E-A3C3DC882267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28170D68-0E1D-45C4-AB74-FB23AF059FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{5092433A-F3BB-4CC2-93C1-BDF3BEBCFA24}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5092433A-F3BB-4CC2-93C1-BDF3BEBCFA24}"/>
   </bookViews>
   <sheets>
-    <sheet name="BPI challenge similarity" sheetId="1" r:id="rId1"/>
-    <sheet name="Frequent operations" sheetId="2" r:id="rId2"/>
-    <sheet name="Question similarity" sheetId="3" r:id="rId3"/>
-    <sheet name="Distribution of reports" sheetId="4" r:id="rId4"/>
+    <sheet name="Frequent operations" sheetId="2" r:id="rId1"/>
+    <sheet name="Question similarity" sheetId="3" r:id="rId2"/>
+    <sheet name="Distribution of reports" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,126 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="125">
-  <si>
-    <t>BPI</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="88">
   <si>
     <t>AVG</t>
   </si>
   <si>
-    <t>0.39</t>
-  </si>
-  <si>
-    <t>0.34</t>
-  </si>
-  <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>0.30</t>
-  </si>
-  <si>
-    <t>0.41</t>
-  </si>
-  <si>
-    <t>0.31</t>
-  </si>
-  <si>
-    <t>0.24</t>
-  </si>
-  <si>
-    <t>0.44</t>
-  </si>
-  <si>
-    <t> 0.27</t>
-  </si>
-  <si>
     <t>VAR</t>
   </si>
   <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>0.10</t>
-  </si>
-  <si>
-    <t>0.049</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>0.11</t>
-  </si>
-  <si>
     <t>STD</t>
-  </si>
-  <si>
-    <t>0.17</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>0.16</t>
-  </si>
-  <si>
-    <t>0.32</t>
-  </si>
-  <si>
-    <t>0.22</t>
-  </si>
-  <si>
-    <t>0.23</t>
-  </si>
-  <si>
-    <t>0.19</t>
-  </si>
-  <si>
-    <t>0.28</t>
-  </si>
-  <si>
-    <t>2015-2015</t>
-  </si>
-  <si>
-    <t>2015-2017</t>
-  </si>
-  <si>
-    <t>2015-2019</t>
-  </si>
-  <si>
-    <t>2017-2017</t>
-  </si>
-  <si>
-    <t>2015-2020</t>
-  </si>
-  <si>
-    <t>2017-2019</t>
-  </si>
-  <si>
-    <t>2017-2020</t>
-  </si>
-  <si>
-    <t>2019-2019</t>
-  </si>
-  <si>
-    <t>2019-2020</t>
-  </si>
-  <si>
-    <t>2020-2020</t>
-  </si>
-  <si>
-    <t>Similarity per challenge using the Sørensen–Dice coefficient  (AVG: average, STD: standard deviation, VAR:Variance)</t>
   </si>
   <si>
     <t>Operation</t>
@@ -442,18 +330,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -468,14 +350,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -855,344 +731,159 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2DFAC3-E637-41C3-B153-3A9B6C98BFA3}">
-  <dimension ref="A2:K8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B2" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:J2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4365E21-9D14-4F5F-9F45-A11C5336D0B8}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.1796875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="29.1796875" style="3" customWidth="1"/>
     <col min="2" max="2" width="91.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="12"/>
+      <c r="A1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>41</v>
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>43</v>
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>44</v>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>46</v>
+      <c r="A5" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>48</v>
+      <c r="A6" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>50</v>
+      <c r="A7" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>52</v>
+      <c r="A8" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>54</v>
+      <c r="A9" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>56</v>
+      <c r="A10" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>58</v>
+      <c r="A11" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>60</v>
+      <c r="A12" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>62</v>
+      <c r="A13" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>64</v>
+      <c r="A14" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>66</v>
+      <c r="A15" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>69</v>
+      <c r="A16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>70</v>
+      <c r="A17" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>72</v>
+      <c r="A18" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +894,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1EB05C4-26F0-4C9B-94D5-9C16319513BC}">
   <dimension ref="A1:I30"/>
   <sheetViews>
@@ -1220,35 +911,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-    </row>
-    <row r="2" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="A1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>20</v>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="B3">
         <v>0.21609400000000001</v>
@@ -1262,7 +953,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="B4">
         <v>0.19525999999999999</v>
@@ -1276,7 +967,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="B5">
         <v>0.19118199999999999</v>
@@ -1290,7 +981,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="B6">
         <v>0.18931600000000001</v>
@@ -1304,7 +995,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="B7">
         <v>0.181426</v>
@@ -1318,7 +1009,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="B8">
         <v>0.17738899999999999</v>
@@ -1332,7 +1023,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="B9">
         <v>0.17158499999999999</v>
@@ -1346,7 +1037,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="B10">
         <v>0.14161099999999999</v>
@@ -1360,7 +1051,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="B11">
         <v>0.136327</v>
@@ -1374,7 +1065,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="B12">
         <v>0.12776000000000001</v>
@@ -1388,7 +1079,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="B13">
         <v>0.121624</v>
@@ -1402,7 +1093,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="B14">
         <v>0.119175</v>
@@ -1416,7 +1107,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="B15">
         <v>0.117039</v>
@@ -1430,7 +1121,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="B16">
         <v>0.115482</v>
@@ -1444,7 +1135,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="B17">
         <v>0.1148</v>
@@ -1458,7 +1149,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="B18">
         <v>0.112189</v>
@@ -1472,7 +1163,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="B19">
         <v>0.10011399999999999</v>
@@ -1486,7 +1177,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="B20">
         <v>8.7856000000000004E-2</v>
@@ -1500,7 +1191,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="B21">
         <v>8.5254999999999997E-2</v>
@@ -1514,7 +1205,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="B22">
         <v>8.1389000000000003E-2</v>
@@ -1528,7 +1219,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="B23">
         <v>7.3986999999999997E-2</v>
@@ -1542,7 +1233,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="B24">
         <v>6.9274000000000002E-2</v>
@@ -1556,7 +1247,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="B25">
         <v>6.5173999999999996E-2</v>
@@ -1570,7 +1261,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="B26">
         <v>6.5072000000000005E-2</v>
@@ -1584,7 +1275,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="B27">
         <v>6.3243999999999995E-2</v>
@@ -1598,7 +1289,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>4.9430000000000002E-2</v>
@@ -1612,7 +1303,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="B29">
         <v>4.8256E-2</v>
@@ -1626,7 +1317,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="B30">
         <v>4.6785E-2</v>
@@ -1650,127 +1341,127 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{390631FF-7F87-4949-BB95-C70D972265FF}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.36328125" style="7" customWidth="1"/>
-    <col min="2" max="16384" width="10.90625" style="7"/>
+    <col min="1" max="1" width="18.36328125" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="10.90625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="A1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="10"/>
-      <c r="B2" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="10">
+      <c r="A3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="8">
         <v>2015</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="8">
         <v>2017</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="8">
         <v>2019</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="8">
         <v>2020</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="F6" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
